--- a/关键词位置统计.xlsx
+++ b/关键词位置统计.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>PC</t>
   </si>
@@ -23,40 +23,10 @@
     <t>mattress protector</t>
   </si>
   <si>
-    <t>2018-04-11 22:57:39.014173</t>
+    <t>2018-04-14 07:37:17.249576</t>
   </si>
   <si>
-    <t>7,10,1(F广告)/1,9,1(Q自然)</t>
-  </si>
-  <si>
-    <t>waterproof mattress protector</t>
-  </si>
-  <si>
-    <t>3,10,2(F广告)/1,8,3(Q自然)</t>
-  </si>
-  <si>
-    <t>queen mattress protector</t>
-  </si>
-  <si>
-    <t>5,9,1(F广告)/2,4,1(Q自然)</t>
-  </si>
-  <si>
-    <t>king mattress protector</t>
-  </si>
-  <si>
-    <t>3,10,1(F广告)/2,3,2(K自然)</t>
-  </si>
-  <si>
-    <t>waterproof mattress pad</t>
-  </si>
-  <si>
-    <t>()/2,10(Q自然)</t>
-  </si>
-  <si>
-    <t>mattress cover</t>
-  </si>
-  <si>
-    <t>()/2,6,1(K自然)</t>
+    <t>大于8页</t>
   </si>
 </sst>
 </file>
@@ -392,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -400,51 +370,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
